--- a/02_MasterWifoMannheim/99_Backup/Course141.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course141.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811599B28317F19F943" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8772CA77-6448-4C1E-B6C5-692BB9BCDCA0}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 580 Digital Marketing Strategy</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Businesses worldwide have been facing a fundamental change in the ways in which customers and companies interact with each other. than ever, they expect more from companies and brands, and information reaches them faster than ever before. apparent development is the rise of platform business models. Thus, the rise of digital technologies has fundamentally changed the way companies craft marketing strategies and how marketing creates, communicates, and delivers value to customers. The overarching goal of this course is to establish a perspective on the digital marketing strategies companies can employ to occupy a sustainable position in the age of social, digital, and mobile for both pipeline and platform businesses.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The course will equip students with the relevant knowledge, perspectives, and practical skills required to develop marketing strategies that leverage the opportunities offered by digital technologies for achieving business and marketing goals. The emphasis of this course is on understanding what various digital platforms and tools offer to companies, how to build digital marketing strategies in order to have a solid foundation from which to evaluate opportunities in the digital economy.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration: “Student Portal” (information on central registration process) and website of the chair (course information).</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written Exam (60 minutes) 60 %, Presentation 40 %</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Sabine Kuester</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 580 Digital Marketing Strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Businesses worldwide have been facing a fundamental change in the ways in which customers and companies interact with each other. than ever, they expect more from companies and brands, and information reaches them faster than ever before. apparent development is the rise of platform business models. Thus, the rise of digital technologies has fundamentally changed the way companies craft marketing strategies and how marketing creates, communicates, and delivers value to customers. The overarching goal of this course is to establish a perspective on the digital marketing strategies companies can employ to occupy a sustainable position in the age of social, digital, and mobile for both pipeline and platform businesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The course will equip students with the relevant knowledge, perspectives, and practical skills required to develop marketing strategies that leverage the opportunities offered by digital technologies for achieving business and marketing goals. The emphasis of this course is on understanding what various digital platforms and tools offer to companies, how to build digital marketing strategies in order to have a solid foundation from which to evaluate opportunities in the digital economy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration: “Student Portal” (information on central registration process) and website of the chair (course information).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written Exam (60 minutes) 60 %, Presentation 40 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Sabine Kuester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
